--- a/medicine/Mort/Cimetière_boisé_de_Berlin-Dahlem/Cimetière_boisé_de_Berlin-Dahlem.xlsx
+++ b/medicine/Mort/Cimetière_boisé_de_Berlin-Dahlem/Cimetière_boisé_de_Berlin-Dahlem.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_bois%C3%A9_de_Berlin-Dahlem</t>
+          <t>Cimetière_boisé_de_Berlin-Dahlem</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière boisé de Berlin-Dahlem (Waldfriedhof Berlin-Dahlem) est un cimetière boisé berlinois situé à l'orée de la forêt de Grunewald dans la rue Hüttenweg 47 à Berlin-Dahlem en Allemagne. 
-Aménagé entre 1931 et 1933 d'après les plans de l'architecte-paysagiste Albert Brodersen, il est l'un des plus récents cimetières berlinois. De nombreuses personnalités y sont enterrées comme l'écrivain Gottfried Benn, le compositeur Werner Eisbrenner, le peintre Karl Schmidt-Rottluff ou l'acteur O. E. Hasse. Le cimetière est arboré de façon très dense par des conifères et compte ainsi parmi les cimetières boisés les plus sylvestres de la ville[1].
+Aménagé entre 1931 et 1933 d'après les plans de l'architecte-paysagiste Albert Brodersen, il est l'un des plus récents cimetières berlinois. De nombreuses personnalités y sont enterrées comme l'écrivain Gottfried Benn, le compositeur Werner Eisbrenner, le peintre Karl Schmidt-Rottluff ou l'acteur O. E. Hasse. Le cimetière est arboré de façon très dense par des conifères et compte ainsi parmi les cimetières boisés les plus sylvestres de la ville.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_bois%C3%A9_de_Berlin-Dahlem</t>
+          <t>Cimetière_boisé_de_Berlin-Dahlem</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Tombes célèbres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Karl Anton (1898-1979), réalisateur, scénariste et producteur
 Elly Beinhorn (1907-2007), pilote pionnière
